--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Total" sheetId="1" r:id="rId1"/>
+    <sheet name="Total" sheetId="2" r:id="rId1"/>
+    <sheet name="Details" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
   <si>
     <t>ああ</t>
   </si>
@@ -271,13 +272,235 @@
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>(hum) older brother</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>姉</t>
+  </si>
+  <si>
+    <t>(hum) older sister</t>
+  </si>
+  <si>
+    <t>あの</t>
+  </si>
+  <si>
+    <t>pren-adj</t>
+  </si>
+  <si>
+    <t>that over there</t>
+  </si>
+  <si>
+    <t>um...</t>
+  </si>
+  <si>
+    <t>アパート</t>
+  </si>
+  <si>
+    <t>n,adv</t>
+  </si>
+  <si>
+    <t>apartment (abbr)</t>
+  </si>
+  <si>
+    <t>あびる</t>
+  </si>
+  <si>
+    <t>to bathe, to shower</t>
+  </si>
+  <si>
+    <t>あぶない</t>
+  </si>
+  <si>
+    <t>危ない</t>
+  </si>
+  <si>
+    <t>dangerous, critical, watch out!</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>甘い</t>
+  </si>
+  <si>
+    <t>adj,expr</t>
+  </si>
+  <si>
+    <t>generous, sweet</t>
+  </si>
+  <si>
+    <t>あまり</t>
+  </si>
+  <si>
+    <t>na-adj,adv,n,n-suf</t>
+  </si>
+  <si>
+    <t>not very, not much</t>
+  </si>
+  <si>
+    <t>あめ</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>飴</t>
+  </si>
+  <si>
+    <t>(hard) candy, toffee</t>
+  </si>
+  <si>
+    <t>あらう</t>
+  </si>
+  <si>
+    <t>洗う</t>
+  </si>
+  <si>
+    <t>to wash</t>
+  </si>
+  <si>
+    <t>ある [存在]</t>
+  </si>
+  <si>
+    <t>u-v-i</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>ある [所有]</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>あるく</t>
+  </si>
+  <si>
+    <t>歩く</t>
+  </si>
+  <si>
+    <t>to walk</t>
+  </si>
+  <si>
+    <t>あれ</t>
+  </si>
+  <si>
+    <t>int,n</t>
+  </si>
+  <si>
+    <t>that, that thing</t>
+  </si>
+  <si>
+    <t>いい/よい</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>no, not at all</t>
+  </si>
+  <si>
+    <t>いう</t>
+  </si>
+  <si>
+    <t>言う</t>
+  </si>
+  <si>
+    <t>to say</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>suf</t>
+  </si>
+  <si>
+    <t>house, family</t>
+  </si>
+  <si>
+    <t>いかが</t>
+  </si>
+  <si>
+    <t>na-adj,adv,n</t>
+  </si>
+  <si>
+    <t>how, in what way</t>
+  </si>
+  <si>
+    <t>いく/ゆく</t>
+  </si>
+  <si>
+    <t>行く</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>いくつ</t>
+  </si>
+  <si>
+    <t>how many?, how old?</t>
+  </si>
+  <si>
+    <t>いくら</t>
+  </si>
+  <si>
+    <t>adv,n</t>
+  </si>
+  <si>
+    <t>how much?, how many?</t>
+  </si>
+  <si>
+    <t>いけ</t>
+  </si>
+  <si>
+    <t>池</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>いしゃ</t>
+  </si>
+  <si>
+    <t>医者</t>
+  </si>
+  <si>
+    <t>doctor (medical)</t>
+  </si>
+  <si>
+    <t>いす</t>
+  </si>
+  <si>
+    <t>chair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +524,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -364,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -393,15 +629,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,29 +925,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B37" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,14 +1373,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -729,14 +1390,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -746,14 +1407,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -763,14 +1424,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -780,14 +1441,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -797,14 +1458,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -814,14 +1475,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -831,14 +1492,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -848,14 +1509,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -865,14 +1526,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -882,14 +1543,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -899,14 +1560,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -916,14 +1577,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
@@ -931,14 +1592,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -948,14 +1609,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
@@ -963,14 +1624,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
@@ -978,14 +1639,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -995,14 +1656,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1012,14 +1673,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1029,14 +1690,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1046,14 +1707,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1061,14 +1722,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1078,14 +1739,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1095,14 +1756,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1112,14 +1773,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="4" t="s">
         <v>76</v>
       </c>
@@ -1127,14 +1788,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1144,19 +1805,450 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="6" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="237">
   <si>
     <t>ああ</t>
   </si>
@@ -494,6 +494,243 @@
   </si>
   <si>
     <t>chair</t>
+  </si>
+  <si>
+    <t>いそがしい</t>
+  </si>
+  <si>
+    <t>忙しい</t>
+  </si>
+  <si>
+    <t>busy, irritated</t>
+  </si>
+  <si>
+    <t>いたい</t>
+  </si>
+  <si>
+    <t>痛い</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>いち</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>いちにち</t>
+  </si>
+  <si>
+    <t>一日</t>
+  </si>
+  <si>
+    <t>1 day (duration)</t>
+  </si>
+  <si>
+    <t>いちばん</t>
+  </si>
+  <si>
+    <t>best, first, number one</t>
+  </si>
+  <si>
+    <t>いつ</t>
+  </si>
+  <si>
+    <t>gn-adv</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>いつか</t>
+  </si>
+  <si>
+    <t>五日</t>
+  </si>
+  <si>
+    <t>five days, the fifth day (of the month)</t>
+  </si>
+  <si>
+    <t>いっしょ</t>
+  </si>
+  <si>
+    <t>一緒</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>いつつ</t>
+  </si>
+  <si>
+    <t>五つ</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>always, every time</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>いみ</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>n,vs</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>妹</t>
+  </si>
+  <si>
+    <t>younger sister</t>
+  </si>
+  <si>
+    <t>いや</t>
+  </si>
+  <si>
+    <t>嫌</t>
+  </si>
+  <si>
+    <t>na-adj,n</t>
+  </si>
+  <si>
+    <t>disagreeable, no</t>
+  </si>
+  <si>
+    <t>いりぐち</t>
+  </si>
+  <si>
+    <t>入口</t>
+  </si>
+  <si>
+    <t>entrance, gate</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>居る</t>
+  </si>
+  <si>
+    <t>(hum) to be (animate), to exist</t>
+  </si>
+  <si>
+    <t>要る</t>
+  </si>
+  <si>
+    <t>to need</t>
+  </si>
+  <si>
+    <t>いれる</t>
+  </si>
+  <si>
+    <t>入れる</t>
+  </si>
+  <si>
+    <t>to put in</t>
+  </si>
+  <si>
+    <t>いろ</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>いろいろ</t>
+  </si>
+  <si>
+    <t>na-adj,adj-no,adv,n</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>うえ</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>no-adj,n-adv,n,n-suf</t>
+  </si>
+  <si>
+    <t>above, on top of</t>
+  </si>
+  <si>
+    <t>うしろ</t>
+  </si>
+  <si>
+    <t>後ろ</t>
+  </si>
+  <si>
+    <t>behind, rear</t>
+  </si>
+  <si>
+    <t>うすい</t>
+  </si>
+  <si>
+    <t>薄い</t>
+  </si>
+  <si>
+    <t>thin, weak</t>
+  </si>
+  <si>
+    <t>うた</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>うたう</t>
+  </si>
+  <si>
+    <t>歌う</t>
+  </si>
+  <si>
+    <t>to sing</t>
   </si>
 </sst>
 </file>
@@ -925,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1335,6 +1572,206 @@
       </c>
       <c r="B55" s="13"/>
     </row>
+    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1343,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2251,7 +2688,438 @@
         <v>157</v>
       </c>
     </row>
+    <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="294">
   <si>
     <t>ああ</t>
   </si>
@@ -731,13 +731,184 @@
   </si>
   <si>
     <t>to sing</t>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>house (one's own)</t>
+  </si>
+  <si>
+    <t>うまれる</t>
+  </si>
+  <si>
+    <t>生まれる</t>
+  </si>
+  <si>
+    <t>to be born</t>
+  </si>
+  <si>
+    <t>うみ</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>sea, beach</t>
+  </si>
+  <si>
+    <t>うる</t>
+  </si>
+  <si>
+    <t>売る</t>
+  </si>
+  <si>
+    <t>to sell</t>
+  </si>
+  <si>
+    <t>うるさい</t>
+  </si>
+  <si>
+    <t>noisy, loud, annoying</t>
+  </si>
+  <si>
+    <t>うわぎ</t>
+  </si>
+  <si>
+    <t>上着</t>
+  </si>
+  <si>
+    <t>coat, jacket</t>
+  </si>
+  <si>
+    <t>え</t>
+  </si>
+  <si>
+    <t>絵</t>
+  </si>
+  <si>
+    <t>n,n-suf</t>
+  </si>
+  <si>
+    <t>picture, drawing, painting, sketch</t>
+  </si>
+  <si>
+    <t>えいが</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>movie, film</t>
+  </si>
+  <si>
+    <t>えいがかん</t>
+  </si>
+  <si>
+    <t>映画館</t>
+  </si>
+  <si>
+    <t>movie theatre (theater), cinema</t>
+  </si>
+  <si>
+    <t>えいご</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>the English language</t>
+  </si>
+  <si>
+    <t>ええ</t>
+  </si>
+  <si>
+    <t>conj,int,n</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>エレベーター</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>～えん</t>
+  </si>
+  <si>
+    <t>～円</t>
+  </si>
+  <si>
+    <t>yen (currency)</t>
+  </si>
+  <si>
+    <t>えんぴつ</t>
+  </si>
+  <si>
+    <t>鉛筆</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>お～</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>honourable ～ (honorific)</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>delicious, tasty</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>おおきい</t>
+  </si>
+  <si>
+    <t>大きい</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>おおきな</t>
+  </si>
+  <si>
+    <t>大きな</t>
+  </si>
+  <si>
+    <t>na-adj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,13 +934,30 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -837,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -878,10 +1066,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,614 +1360,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="13"/>
-    </row>
-    <row r="38" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="12"/>
-    </row>
-    <row r="53" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="17"/>
+    </row>
+    <row r="62" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="12"/>
-    </row>
-    <row r="77" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="17" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="17"/>
+    </row>
+    <row r="98" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="16"/>
+    </row>
+    <row r="99" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1780,19 +2126,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
@@ -2385,7 +2731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2451,7 +2797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2466,7 +2812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2577,7 +2923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2786,7 +3132,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3018,7 +3364,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3033,7 +3379,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -3116,6 +3462,334 @@
       </c>
       <c r="E81" s="9" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="437">
   <si>
     <t>ああ</t>
   </si>
@@ -902,13 +902,442 @@
   </si>
   <si>
     <t>na-adj</t>
+  </si>
+  <si>
+    <t>おおぜい</t>
+  </si>
+  <si>
+    <t>大勢</t>
+  </si>
+  <si>
+    <t>great number of people</t>
+  </si>
+  <si>
+    <t>おかあさん</t>
+  </si>
+  <si>
+    <t>お母さん</t>
+  </si>
+  <si>
+    <t>(hon) mother</t>
+  </si>
+  <si>
+    <t>おかし</t>
+  </si>
+  <si>
+    <t>お菓子</t>
+  </si>
+  <si>
+    <t>confections, sweets, candy</t>
+  </si>
+  <si>
+    <t>おかね</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>おきる</t>
+  </si>
+  <si>
+    <t>起きる</t>
+  </si>
+  <si>
+    <t>to get up, to rise</t>
+  </si>
+  <si>
+    <t>おく</t>
+  </si>
+  <si>
+    <t>置く</t>
+  </si>
+  <si>
+    <t>to put, to place</t>
+  </si>
+  <si>
+    <t>おくさん</t>
+  </si>
+  <si>
+    <t>奥さん</t>
+  </si>
+  <si>
+    <t>(hon) wife</t>
+  </si>
+  <si>
+    <t>おさけ</t>
+  </si>
+  <si>
+    <t>お酒</t>
+  </si>
+  <si>
+    <t>alcohol, sake (rice wine)</t>
+  </si>
+  <si>
+    <t>おさら</t>
+  </si>
+  <si>
+    <t>お皿</t>
+  </si>
+  <si>
+    <t>plate, dish</t>
+  </si>
+  <si>
+    <t>おじ・さん</t>
+  </si>
+  <si>
+    <t>伯父/叔父・さん</t>
+  </si>
+  <si>
+    <t>uncle, middle aged man</t>
+  </si>
+  <si>
+    <t>おじいさん</t>
+  </si>
+  <si>
+    <t>grandfather, male senior citizen</t>
+  </si>
+  <si>
+    <t>おしえる</t>
+  </si>
+  <si>
+    <t>教える</t>
+  </si>
+  <si>
+    <t>to teach, to inform</t>
+  </si>
+  <si>
+    <t>おす</t>
+  </si>
+  <si>
+    <t>押す</t>
+  </si>
+  <si>
+    <t>u-v,vt</t>
+  </si>
+  <si>
+    <t>to push, to press</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>late, slow</t>
+  </si>
+  <si>
+    <t>おちゃ</t>
+  </si>
+  <si>
+    <t>お茶</t>
+  </si>
+  <si>
+    <t>tea (green)</t>
+  </si>
+  <si>
+    <t>おてあらい</t>
+  </si>
+  <si>
+    <t>お手洗い</t>
+  </si>
+  <si>
+    <t>toilet, lavatory, bathroom</t>
+  </si>
+  <si>
+    <t>おとうさん</t>
+  </si>
+  <si>
+    <t>お父さん</t>
+  </si>
+  <si>
+    <t>(hon) father</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>弟</t>
+  </si>
+  <si>
+    <t>younger brother</t>
+  </si>
+  <si>
+    <t>おとこ</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>おとこのこ</t>
+  </si>
+  <si>
+    <t>男の子</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>おととい</t>
+  </si>
+  <si>
+    <t>day before yesterday</t>
+  </si>
+  <si>
+    <t>おととし</t>
+  </si>
+  <si>
+    <t>year before last</t>
+  </si>
+  <si>
+    <t>おとな</t>
+  </si>
+  <si>
+    <t>大人</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>おなか</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>おなじ</t>
+  </si>
+  <si>
+    <t>同じ</t>
+  </si>
+  <si>
+    <t>same, identical, similar</t>
+  </si>
+  <si>
+    <t>おにいさん</t>
+  </si>
+  <si>
+    <t>お兄さん</t>
+  </si>
+  <si>
+    <t>(hon) older brother</t>
+  </si>
+  <si>
+    <t>おねえさん</t>
+  </si>
+  <si>
+    <t>お姉さん</t>
+  </si>
+  <si>
+    <t>(hon) older sister</t>
+  </si>
+  <si>
+    <t>おばさん</t>
+  </si>
+  <si>
+    <t>伯母さん/叔母さん</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>おばあさん</t>
+  </si>
+  <si>
+    <t>grandmother, female senior-citizen</t>
+  </si>
+  <si>
+    <t>おふろ</t>
+  </si>
+  <si>
+    <t>お風呂</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>おべんとう</t>
+  </si>
+  <si>
+    <t>お弁当</t>
+  </si>
+  <si>
+    <t>boxed lunch</t>
+  </si>
+  <si>
+    <t>おぼえる</t>
+  </si>
+  <si>
+    <t>覚える</t>
+  </si>
+  <si>
+    <t>to remember, to memorize</t>
+  </si>
+  <si>
+    <t>おまわりさん</t>
+  </si>
+  <si>
+    <t>policeman (friendly term)</t>
+  </si>
+  <si>
+    <t>おもい</t>
+  </si>
+  <si>
+    <t>重い</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>interesting, amusing</t>
+  </si>
+  <si>
+    <t>およぐ</t>
+  </si>
+  <si>
+    <t>泳ぐ</t>
+  </si>
+  <si>
+    <t>to swim</t>
+  </si>
+  <si>
+    <t>おりる</t>
+  </si>
+  <si>
+    <t>降りる</t>
+  </si>
+  <si>
+    <t>to alight (eg from bus), to get off</t>
+  </si>
+  <si>
+    <t>おわる</t>
+  </si>
+  <si>
+    <t>終る</t>
+  </si>
+  <si>
+    <t>to finish, to close</t>
+  </si>
+  <si>
+    <t>おんがく</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>おんな</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>woman, girl, daughter</t>
+  </si>
+  <si>
+    <t>おんなのこ</t>
+  </si>
+  <si>
+    <t>女の子</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>～かい</t>
+  </si>
+  <si>
+    <t>～回</t>
+  </si>
+  <si>
+    <t>counter for occurrences</t>
+  </si>
+  <si>
+    <t>～階</t>
+  </si>
+  <si>
+    <t>counter for storeys of a building</t>
+  </si>
+  <si>
+    <t>がいこく</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>foreign country</t>
+  </si>
+  <si>
+    <t>がいこくじん</t>
+  </si>
+  <si>
+    <t>外国人</t>
+  </si>
+  <si>
+    <t>foreigner</t>
+  </si>
+  <si>
+    <t>かいしゃ</t>
+  </si>
+  <si>
+    <t>会社</t>
+  </si>
+  <si>
+    <t>company, corporation</t>
+  </si>
+  <si>
+    <t>かいだん</t>
+  </si>
+  <si>
+    <t>階段</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>かいもの</t>
+  </si>
+  <si>
+    <t>買い物</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>かう</t>
+  </si>
+  <si>
+    <t>買う</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>かえす</t>
+  </si>
+  <si>
+    <t>返す</t>
+  </si>
+  <si>
+    <t>to return something</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,29 +1369,6 @@
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -984,21 +1390,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1012,21 +1409,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1036,50 +1433,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,762 +1717,1108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="16"/>
-    </row>
-    <row r="27" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="16"/>
-    </row>
-    <row r="33" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="16"/>
-    </row>
-    <row r="35" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="17"/>
-    </row>
-    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="17"/>
-    </row>
-    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="16"/>
-    </row>
-    <row r="61" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="17"/>
-    </row>
-    <row r="62" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="17"/>
-    </row>
-    <row r="66" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="16"/>
-    </row>
-    <row r="77" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B82" s="16"/>
-    </row>
-    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="16"/>
-    </row>
-    <row r="87" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B92" s="16"/>
-    </row>
-    <row r="93" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B94" s="16"/>
-    </row>
-    <row r="95" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B97" s="17"/>
-    </row>
-    <row r="98" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="16"/>
-    </row>
-    <row r="99" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="7" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2126,1670 +2829,2466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="6" t="s">
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="6" t="s">
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="6" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="573">
   <si>
     <t>ああ</t>
   </si>
@@ -1331,6 +1331,414 @@
   </si>
   <si>
     <t>to return something</t>
+  </si>
+  <si>
+    <t>かえる</t>
+  </si>
+  <si>
+    <t>帰る</t>
+  </si>
+  <si>
+    <t>to go home, to return</t>
+  </si>
+  <si>
+    <t>かお</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>face (person)</t>
+  </si>
+  <si>
+    <t>かかる</t>
+  </si>
+  <si>
+    <t>to take (eg time, money)</t>
+  </si>
+  <si>
+    <t>かぎ</t>
+  </si>
+  <si>
+    <t>key/s</t>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>書く</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>がくせい</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>～かげつ</t>
+  </si>
+  <si>
+    <t>～か月</t>
+  </si>
+  <si>
+    <t>(number of) months</t>
+  </si>
+  <si>
+    <t>かける</t>
+  </si>
+  <si>
+    <t>to put on (eg glasses)</t>
+  </si>
+  <si>
+    <t>to dial/call (eg phone)</t>
+  </si>
+  <si>
+    <t>かさ</t>
+  </si>
+  <si>
+    <t>傘</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>かす</t>
+  </si>
+  <si>
+    <t>貸す</t>
+  </si>
+  <si>
+    <t>to lend</t>
+  </si>
+  <si>
+    <t>かぜ</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>wind, breeze</t>
+  </si>
+  <si>
+    <t>風邪</t>
+  </si>
+  <si>
+    <t>cold, illness</t>
+  </si>
+  <si>
+    <t>かた</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>かたかな</t>
+  </si>
+  <si>
+    <t>片仮名</t>
+  </si>
+  <si>
+    <t>katakana</t>
+  </si>
+  <si>
+    <t>～がつ</t>
+  </si>
+  <si>
+    <t>～月</t>
+  </si>
+  <si>
+    <t>month of year</t>
+  </si>
+  <si>
+    <t>がっこう</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>カップ</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>かてい</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>home, household</t>
+  </si>
+  <si>
+    <t>かど</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>corner (e.g. desk)</t>
+  </si>
+  <si>
+    <t>かばん</t>
+  </si>
+  <si>
+    <t>bag, basket</t>
+  </si>
+  <si>
+    <t>かびん</t>
+  </si>
+  <si>
+    <t>花瓶</t>
+  </si>
+  <si>
+    <t>(flower) vase</t>
+  </si>
+  <si>
+    <t>かぶる</t>
+  </si>
+  <si>
+    <t>to wear, to put on (head)</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>カメラ</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>かようび</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>n-adv,n</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>辛い</t>
+  </si>
+  <si>
+    <t>spicy, salty</t>
+  </si>
+  <si>
+    <t>からだ</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>かりる</t>
+  </si>
+  <si>
+    <t>借りる</t>
+  </si>
+  <si>
+    <t>to borrow, to have a loan</t>
+  </si>
+  <si>
+    <t>～がる</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>かるい</t>
+  </si>
+  <si>
+    <t>軽い</t>
+  </si>
+  <si>
+    <t>light, non-serious, minor</t>
+  </si>
+  <si>
+    <t>カレー</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>カレンダー</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>川/河</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>～がわ</t>
+  </si>
+  <si>
+    <t>側</t>
+  </si>
+  <si>
+    <t>n-suf</t>
+  </si>
+  <si>
+    <t>～ side</t>
+  </si>
+  <si>
+    <t>かわいい</t>
+  </si>
+  <si>
+    <t>cute, charming</t>
+  </si>
+  <si>
+    <t>かんじ</t>
+  </si>
+  <si>
+    <t>漢字</t>
+  </si>
+  <si>
+    <t>kanji, Chinese character</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>tree, wood</t>
+  </si>
+  <si>
+    <t>きいろ</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>きいろい</t>
+  </si>
+  <si>
+    <t>黄色い</t>
+  </si>
+  <si>
+    <t>きえる</t>
+  </si>
+  <si>
+    <t>消える</t>
+  </si>
+  <si>
+    <t>to go out, to vanish</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>聞く</t>
+  </si>
+  <si>
+    <t>to hear, to listen, to ask</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>ギター</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>きたない</t>
+  </si>
+  <si>
+    <t>汚い</t>
+  </si>
+  <si>
+    <t>dirty, messy</t>
+  </si>
+  <si>
+    <t>きっさてん</t>
+  </si>
+  <si>
+    <t>喫茶店</t>
+  </si>
+  <si>
+    <t>coffee lounge</t>
+  </si>
+  <si>
+    <t>きって</t>
+  </si>
+  <si>
+    <t>切手</t>
+  </si>
+  <si>
+    <t>stamp (eg. postage)</t>
+  </si>
+  <si>
+    <t>きっぷ</t>
+  </si>
+  <si>
+    <t>切符</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>きのう</t>
+  </si>
+  <si>
+    <t>昨日</t>
+  </si>
+  <si>
+    <t>yesterday</t>
   </si>
 </sst>
 </file>
@@ -1717,14 +2125,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2924,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>321</v>
       </c>
@@ -2646,7 +3056,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="74.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>372</v>
       </c>
@@ -2819,6 +3229,367 @@
       </c>
       <c r="B151" s="7" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2829,19 +3600,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,7 +4194,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4043,7 +4814,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4057,7 +4828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4617,7 +5388,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -4909,7 +5680,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="74.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5289,6 +6060,815 @@
       </c>
       <c r="E151" s="6" t="s">
         <v>436</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="720">
   <si>
     <t>ああ</t>
   </si>
@@ -1739,6 +1739,447 @@
   </si>
   <si>
     <t>yesterday</t>
+  </si>
+  <si>
+    <t>きゅう</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ぎゅうにく</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>ぎゅうにゅう</t>
+  </si>
+  <si>
+    <t>牛乳</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>today, this day</t>
+  </si>
+  <si>
+    <t>きょうしつ</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>きょうだい</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+  </si>
+  <si>
+    <t>siblings (brothers and sisters)</t>
+  </si>
+  <si>
+    <t>きょねん</t>
+  </si>
+  <si>
+    <t>去年</t>
+  </si>
+  <si>
+    <t>last year</t>
+  </si>
+  <si>
+    <t>きらい</t>
+  </si>
+  <si>
+    <t>嫌い</t>
+  </si>
+  <si>
+    <t>dislike, hate</t>
+  </si>
+  <si>
+    <t>きる</t>
+  </si>
+  <si>
+    <t>切る</t>
+  </si>
+  <si>
+    <t>suf,u-v</t>
+  </si>
+  <si>
+    <t>to cut, to chop</t>
+  </si>
+  <si>
+    <t>着る</t>
+  </si>
+  <si>
+    <t>to wear, to put on (from shoulders down)</t>
+  </si>
+  <si>
+    <t>きれい</t>
+  </si>
+  <si>
+    <t>pretty, clean, nice, tidy</t>
+  </si>
+  <si>
+    <t>キロ/キログラム</t>
+  </si>
+  <si>
+    <t>n,pref</t>
+  </si>
+  <si>
+    <t>kilo (kilogram)</t>
+  </si>
+  <si>
+    <t>キロ/キロメートル</t>
+  </si>
+  <si>
+    <t>kilo (kilometre)</t>
+  </si>
+  <si>
+    <t>ぎんこう</t>
+  </si>
+  <si>
+    <t>銀行</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>きんようび</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>く</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>くすり</t>
+  </si>
+  <si>
+    <t>薬</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>ください</t>
+  </si>
+  <si>
+    <t>kana only</t>
+  </si>
+  <si>
+    <t>(with te-form verb) please do for me</t>
+  </si>
+  <si>
+    <t>くだもの</t>
+  </si>
+  <si>
+    <t>果物</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>くち</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>mouth, orifice, opening</t>
+  </si>
+  <si>
+    <t>くつ</t>
+  </si>
+  <si>
+    <t>靴</t>
+  </si>
+  <si>
+    <t>shoes, footwear</t>
+  </si>
+  <si>
+    <t>くつした</t>
+  </si>
+  <si>
+    <t>靴下</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>くに</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>くもり</t>
+  </si>
+  <si>
+    <t>曇り</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>cloudiness, cloudy weather</t>
+  </si>
+  <si>
+    <t>くもる</t>
+  </si>
+  <si>
+    <t>曇る</t>
+  </si>
+  <si>
+    <t>to become cloudy, to become dim</t>
+  </si>
+  <si>
+    <t>くらい</t>
+  </si>
+  <si>
+    <t>暗い</t>
+  </si>
+  <si>
+    <t>dark, gloomy</t>
+  </si>
+  <si>
+    <t>～くらい/ぐらい</t>
+  </si>
+  <si>
+    <t>approximate (quantity)</t>
+  </si>
+  <si>
+    <t>クラス</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>グラム</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>くる</t>
+  </si>
+  <si>
+    <t>来る</t>
+  </si>
+  <si>
+    <t>vk</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>car, vehicle</t>
+  </si>
+  <si>
+    <t>くろ</t>
+  </si>
+  <si>
+    <t>黒</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>くろい</t>
+  </si>
+  <si>
+    <t>黒い</t>
+  </si>
+  <si>
+    <t>けいかん</t>
+  </si>
+  <si>
+    <t>警官</t>
+  </si>
+  <si>
+    <t>policeman</t>
+  </si>
+  <si>
+    <t>けさ</t>
+  </si>
+  <si>
+    <t>今朝</t>
+  </si>
+  <si>
+    <t>n-temp</t>
+  </si>
+  <si>
+    <t>this morning</t>
+  </si>
+  <si>
+    <t>けす</t>
+  </si>
+  <si>
+    <t>消す</t>
+  </si>
+  <si>
+    <t>to erase, to delete, to turn off power</t>
+  </si>
+  <si>
+    <t>けっこう</t>
+  </si>
+  <si>
+    <t>結構</t>
+  </si>
+  <si>
+    <t>na-adj,n-adv,n</t>
+  </si>
+  <si>
+    <t>nice, enough</t>
+  </si>
+  <si>
+    <t>けっこん（する）</t>
+  </si>
+  <si>
+    <t>結婚</t>
+  </si>
+  <si>
+    <t>adj-no,n,vs</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>げつようび</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>げんかん</t>
+  </si>
+  <si>
+    <t>玄関</t>
+  </si>
+  <si>
+    <t>entrance-way, entry hall</t>
+  </si>
+  <si>
+    <t>げんき</t>
+  </si>
+  <si>
+    <t>元気</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>～こ</t>
+  </si>
+  <si>
+    <t>～個</t>
+  </si>
+  <si>
+    <t>n,suf</t>
+  </si>
+  <si>
+    <t>counter for small items</t>
+  </si>
+  <si>
+    <t>ご</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>～ご</t>
+  </si>
+  <si>
+    <t>～語</t>
+  </si>
+  <si>
+    <t>word, language</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <t>(public) park</t>
+  </si>
+  <si>
+    <t>こうさてん</t>
+  </si>
+  <si>
+    <t>交差点</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>こうちゃ</t>
+  </si>
+  <si>
+    <t>紅茶</t>
+  </si>
+  <si>
+    <t>black tea</t>
+  </si>
+  <si>
+    <t>こうばん</t>
+  </si>
+  <si>
+    <t>交番</t>
+  </si>
+  <si>
+    <t>police box</t>
+  </si>
+  <si>
+    <t>こえ</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>コート</t>
+  </si>
+  <si>
+    <t>coat</t>
   </si>
 </sst>
 </file>
@@ -2125,15 +2566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3590,6 +4031,382 @@
       </c>
       <c r="B201" s="7" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -3600,16 +4417,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="8" bestFit="1" customWidth="1"/>
@@ -6871,6 +7688,832 @@
         <v>572</v>
       </c>
     </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="859">
   <si>
     <t>ああ</t>
   </si>
@@ -2180,6 +2180,423 @@
   </si>
   <si>
     <t>coat</t>
+  </si>
+  <si>
+    <t>コーヒー</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>ここ</t>
+  </si>
+  <si>
+    <t>here, this place</t>
+  </si>
+  <si>
+    <t>ごご</t>
+  </si>
+  <si>
+    <t>午後</t>
+  </si>
+  <si>
+    <t>afternoon, P.M.</t>
+  </si>
+  <si>
+    <t>ここのか</t>
+  </si>
+  <si>
+    <t>九日</t>
+  </si>
+  <si>
+    <t>nine days, the ninth day (of the month)</t>
+  </si>
+  <si>
+    <t>ここのつ</t>
+  </si>
+  <si>
+    <t>九つ</t>
+  </si>
+  <si>
+    <t>ごぜん</t>
+  </si>
+  <si>
+    <t>午前</t>
+  </si>
+  <si>
+    <t>morning, A.M.</t>
+  </si>
+  <si>
+    <t>こたえる</t>
+  </si>
+  <si>
+    <t>答える</t>
+  </si>
+  <si>
+    <t>to answer, to reply</t>
+  </si>
+  <si>
+    <t>こちら</t>
+  </si>
+  <si>
+    <t>this eg person, way</t>
+  </si>
+  <si>
+    <t>こっち</t>
+  </si>
+  <si>
+    <t>コップ</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>this year</t>
+  </si>
+  <si>
+    <t>ことば</t>
+  </si>
+  <si>
+    <t>言葉</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>子供</t>
+  </si>
+  <si>
+    <t>child, children</t>
+  </si>
+  <si>
+    <t>この</t>
+  </si>
+  <si>
+    <t>adj-pn,int</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>ごはん</t>
+  </si>
+  <si>
+    <t>御飯</t>
+  </si>
+  <si>
+    <t>rice (cooked), meal</t>
+  </si>
+  <si>
+    <t>コピー・する</t>
+  </si>
+  <si>
+    <t>n,p-suru</t>
+  </si>
+  <si>
+    <t>to copy</t>
+  </si>
+  <si>
+    <t>こまる</t>
+  </si>
+  <si>
+    <t>困る</t>
+  </si>
+  <si>
+    <t>to be worried, to be bothered</t>
+  </si>
+  <si>
+    <t>これ</t>
+  </si>
+  <si>
+    <t>～ころ/～ごろ</t>
+  </si>
+  <si>
+    <t>about, approximately (time)</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>this month</t>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+  </si>
+  <si>
+    <t>今週</t>
+  </si>
+  <si>
+    <t>this week</t>
+  </si>
+  <si>
+    <t>こんな</t>
+  </si>
+  <si>
+    <t>na-adj,adj-pn,adv,n</t>
+  </si>
+  <si>
+    <t>such, like this</t>
+  </si>
+  <si>
+    <t>こんばん</t>
+  </si>
+  <si>
+    <t>今晩</t>
+  </si>
+  <si>
+    <t>tonight, this evening</t>
+  </si>
+  <si>
+    <t>さあ</t>
+  </si>
+  <si>
+    <t>conj,int</t>
+  </si>
+  <si>
+    <t>come now, well</t>
+  </si>
+  <si>
+    <t>～さい</t>
+  </si>
+  <si>
+    <t>～歳</t>
+  </si>
+  <si>
+    <t>～years-old</t>
+  </si>
+  <si>
+    <t>さいふ</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>さかな</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>さき</t>
+  </si>
+  <si>
+    <t>先</t>
+  </si>
+  <si>
+    <t>adj-no,n,n-suf,pref</t>
+  </si>
+  <si>
+    <t>the future, former, previous</t>
+  </si>
+  <si>
+    <t>さく</t>
+  </si>
+  <si>
+    <t>咲く</t>
+  </si>
+  <si>
+    <t>to bloom</t>
+  </si>
+  <si>
+    <t>さくぶん</t>
+  </si>
+  <si>
+    <t>作文</t>
+  </si>
+  <si>
+    <t>composition, writing</t>
+  </si>
+  <si>
+    <t>さす</t>
+  </si>
+  <si>
+    <t>差す</t>
+  </si>
+  <si>
+    <t>to raise (stretch out) hands, to raise (eg umbrella)</t>
+  </si>
+  <si>
+    <t>～さつ</t>
+  </si>
+  <si>
+    <t>～冊</t>
+  </si>
+  <si>
+    <t>counter for books</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>雑誌</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>さとう</t>
+  </si>
+  <si>
+    <t>砂糖</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>cold (e.g. weather)</t>
+  </si>
+  <si>
+    <t>さらいねん</t>
+  </si>
+  <si>
+    <t>さ来年</t>
+  </si>
+  <si>
+    <t>year after next</t>
+  </si>
+  <si>
+    <t>～さん</t>
+  </si>
+  <si>
+    <t>Mr or Mrs</t>
+  </si>
+  <si>
+    <t>さん</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>さんぽ（する）</t>
+  </si>
+  <si>
+    <t>散歩</t>
+  </si>
+  <si>
+    <t>walk, stroll</t>
+  </si>
+  <si>
+    <t>し</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>～じ</t>
+  </si>
+  <si>
+    <t>～時</t>
+  </si>
+  <si>
+    <t>time (～ O'clock)</t>
+  </si>
+  <si>
+    <t>しお</t>
+  </si>
+  <si>
+    <t>塩</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>しかし</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t>however, but</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>～じかん</t>
+  </si>
+  <si>
+    <t>～時間</t>
+  </si>
+  <si>
+    <t>～hours</t>
+  </si>
+  <si>
+    <t>しごと</t>
+  </si>
+  <si>
+    <t>仕事</t>
+  </si>
+  <si>
+    <t>work, occupation, employment</t>
+  </si>
+  <si>
+    <t>じしょ</t>
+  </si>
+  <si>
+    <t>辞書</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>quiet, peaceful</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>under, below, beneath</t>
+  </si>
+  <si>
+    <t>しち</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>seven</t>
   </si>
 </sst>
 </file>
@@ -2566,10 +2983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -4409,6 +4826,367 @@
         <v>718</v>
       </c>
     </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4417,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -7872,7 +8650,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -7886,7 +8664,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8118,7 +8896,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8296,7 +9074,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -8512,6 +9290,815 @@
       </c>
       <c r="E251" s="6" t="s">
         <v>719</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1123">
   <si>
     <t>ああ</t>
   </si>
@@ -2597,6 +2597,798 @@
   </si>
   <si>
     <t>seven</t>
+  </si>
+  <si>
+    <t>しつもん</t>
+  </si>
+  <si>
+    <t>質問</t>
+  </si>
+  <si>
+    <t>question, inquiry</t>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
+  </si>
+  <si>
+    <t>自転車</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>じどうしゃ</t>
+  </si>
+  <si>
+    <t>自動車</t>
+  </si>
+  <si>
+    <t>automobile</t>
+  </si>
+  <si>
+    <t>しぬ</t>
+  </si>
+  <si>
+    <t>死ぬ</t>
+  </si>
+  <si>
+    <t>v5n</t>
+  </si>
+  <si>
+    <t>to die</t>
+  </si>
+  <si>
+    <t>じびき</t>
+  </si>
+  <si>
+    <t>字引</t>
+  </si>
+  <si>
+    <t>じぶん</t>
+  </si>
+  <si>
+    <t>自分</t>
+  </si>
+  <si>
+    <t>myself, oneself</t>
+  </si>
+  <si>
+    <t>しまる</t>
+  </si>
+  <si>
+    <t>閉まる</t>
+  </si>
+  <si>
+    <t>to close, to be closed</t>
+  </si>
+  <si>
+    <t>しめる</t>
+  </si>
+  <si>
+    <t>閉める</t>
+  </si>
+  <si>
+    <t>ru-v,vt</t>
+  </si>
+  <si>
+    <t>to close, to shut</t>
+  </si>
+  <si>
+    <t>締める</t>
+  </si>
+  <si>
+    <t>to tie, to fasten</t>
+  </si>
+  <si>
+    <t>じゃ/じゃあ</t>
+  </si>
+  <si>
+    <t>well, well then</t>
+  </si>
+  <si>
+    <t>しゃしん</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>シャツ</t>
+  </si>
+  <si>
+    <t>shirt, singlet</t>
+  </si>
+  <si>
+    <t>シャワー</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>じゅう</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>～じゅう</t>
+  </si>
+  <si>
+    <t>～中</t>
+  </si>
+  <si>
+    <t>during, while</t>
+  </si>
+  <si>
+    <t>～しゅうかん</t>
+  </si>
+  <si>
+    <t>～週間</t>
+  </si>
+  <si>
+    <t>～weeks</t>
+  </si>
+  <si>
+    <t>じゅぎょう</t>
+  </si>
+  <si>
+    <t>授業</t>
+  </si>
+  <si>
+    <t>lesson, class work</t>
+  </si>
+  <si>
+    <t>しゅくだい</t>
+  </si>
+  <si>
+    <t>宿題</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t>じょうず</t>
+  </si>
+  <si>
+    <t>上手</t>
+  </si>
+  <si>
+    <t>skill, skillful, dexterity</t>
+  </si>
+  <si>
+    <t>じょうぶ</t>
+  </si>
+  <si>
+    <t>丈夫</t>
+  </si>
+  <si>
+    <t>strong, solid, durable</t>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+  </si>
+  <si>
+    <t>soy sauce</t>
+  </si>
+  <si>
+    <t>しょくどう</t>
+  </si>
+  <si>
+    <t>食堂</t>
+  </si>
+  <si>
+    <t>cafeteria, dining hall</t>
+  </si>
+  <si>
+    <t>しる</t>
+  </si>
+  <si>
+    <t>知る</t>
+  </si>
+  <si>
+    <t>to know, to understand</t>
+  </si>
+  <si>
+    <t>しろ</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>しろい</t>
+  </si>
+  <si>
+    <t>白い</t>
+  </si>
+  <si>
+    <t>～にん</t>
+  </si>
+  <si>
+    <t>～人</t>
+  </si>
+  <si>
+    <t>counter for people</t>
+  </si>
+  <si>
+    <t>しんぶん</t>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>すいようび</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>すう</t>
+  </si>
+  <si>
+    <t>吸う</t>
+  </si>
+  <si>
+    <t>to smoke, to breathe in, to suck</t>
+  </si>
+  <si>
+    <t>スカート</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>すき</t>
+  </si>
+  <si>
+    <t>好き</t>
+  </si>
+  <si>
+    <t>liking, fondness, love</t>
+  </si>
+  <si>
+    <t>～すぎ</t>
+  </si>
+  <si>
+    <t>to exceed, ～ too much</t>
+  </si>
+  <si>
+    <t>すくない</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>a few, scarce</t>
+  </si>
+  <si>
+    <t>すぐ・に</t>
+  </si>
+  <si>
+    <t>immediately, instantly</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>少し</t>
+  </si>
+  <si>
+    <t>little, few</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>涼しい</t>
+  </si>
+  <si>
+    <t>cool, refreshing</t>
+  </si>
+  <si>
+    <t>～ずつ</t>
+  </si>
+  <si>
+    <t>at a time, gradually</t>
+  </si>
+  <si>
+    <t>ストーブ</t>
+  </si>
+  <si>
+    <t>heater (lit: stove)</t>
+  </si>
+  <si>
+    <t>スプーン</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>ズボン</t>
+  </si>
+  <si>
+    <t>trousers (fr: jupon)</t>
+  </si>
+  <si>
+    <t>すむ</t>
+  </si>
+  <si>
+    <t>住む</t>
+  </si>
+  <si>
+    <t>to reside, to live in</t>
+  </si>
+  <si>
+    <t>スリッパ</t>
+  </si>
+  <si>
+    <t>slippers</t>
+  </si>
+  <si>
+    <t>する</t>
+  </si>
+  <si>
+    <t>vs-i</t>
+  </si>
+  <si>
+    <t>to do, to try</t>
+  </si>
+  <si>
+    <t>すわる</t>
+  </si>
+  <si>
+    <t>座る</t>
+  </si>
+  <si>
+    <t>to sit</t>
+  </si>
+  <si>
+    <t>せい</t>
+  </si>
+  <si>
+    <t>背</t>
+  </si>
+  <si>
+    <t>height, stature</t>
+  </si>
+  <si>
+    <t>せいと</t>
+  </si>
+  <si>
+    <t>生徒</t>
+  </si>
+  <si>
+    <t>pupil</t>
+  </si>
+  <si>
+    <t>セーター</t>
+  </si>
+  <si>
+    <t>sweater, jumper</t>
+  </si>
+  <si>
+    <t>せっけん</t>
+  </si>
+  <si>
+    <t>石鹸</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>せびろ</t>
+  </si>
+  <si>
+    <t>背広</t>
+  </si>
+  <si>
+    <t>business suit</t>
+  </si>
+  <si>
+    <t>せまい</t>
+  </si>
+  <si>
+    <t>狭い</t>
+  </si>
+  <si>
+    <t>narrow, confined, small</t>
+  </si>
+  <si>
+    <t>ゼロ</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>せん</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>thousand, many</t>
+  </si>
+  <si>
+    <t>せんげつ</t>
+  </si>
+  <si>
+    <t>先月</t>
+  </si>
+  <si>
+    <t>last month</t>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+  </si>
+  <si>
+    <t>先週</t>
+  </si>
+  <si>
+    <t>last week, the week before</t>
+  </si>
+  <si>
+    <t>せんせい</t>
+  </si>
+  <si>
+    <t>先生</t>
+  </si>
+  <si>
+    <t>teacher, master, doctor</t>
+  </si>
+  <si>
+    <t>せんたく</t>
+  </si>
+  <si>
+    <t>洗濯</t>
+  </si>
+  <si>
+    <t>washing, laundry</t>
+  </si>
+  <si>
+    <t>ぜんぶ</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>all, entire, whole</t>
+  </si>
+  <si>
+    <t>そう/そうです</t>
+  </si>
+  <si>
+    <t>appears, to be the case</t>
+  </si>
+  <si>
+    <t>そうじ（する）</t>
+  </si>
+  <si>
+    <t>掃除</t>
+  </si>
+  <si>
+    <t>cleaning, sweeping</t>
+  </si>
+  <si>
+    <t>そうして/そして</t>
+  </si>
+  <si>
+    <t>and, like that</t>
+  </si>
+  <si>
+    <t>そこ</t>
+  </si>
+  <si>
+    <t>that place, there</t>
+  </si>
+  <si>
+    <t>そちら</t>
+  </si>
+  <si>
+    <t>そっち</t>
+  </si>
+  <si>
+    <t>そと</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>outside, exterior</t>
+  </si>
+  <si>
+    <t>その</t>
+  </si>
+  <si>
+    <t>adj-pn</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>そば</t>
+  </si>
+  <si>
+    <t>near, close, beside</t>
+  </si>
+  <si>
+    <t>そら</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>それ</t>
+  </si>
+  <si>
+    <t>it, that</t>
+  </si>
+  <si>
+    <t>それから</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>and then, after that</t>
+  </si>
+  <si>
+    <t>それでは</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>in that situation, well then...</t>
+  </si>
+  <si>
+    <t>～だい</t>
+  </si>
+  <si>
+    <t>～台</t>
+  </si>
+  <si>
+    <t>counter for vehicles/machines</t>
+  </si>
+  <si>
+    <t>だいがく</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>たいしかん</t>
+  </si>
+  <si>
+    <t>大使館</t>
+  </si>
+  <si>
+    <t>embassy</t>
+  </si>
+  <si>
+    <t>だいじょうぶ</t>
+  </si>
+  <si>
+    <t>大丈夫</t>
+  </si>
+  <si>
+    <t>safe, all right, O.K.</t>
+  </si>
+  <si>
+    <t>だいすき</t>
+  </si>
+  <si>
+    <t>大好き</t>
+  </si>
+  <si>
+    <t>very likeable, like very much</t>
+  </si>
+  <si>
+    <t>たいせつ</t>
+  </si>
+  <si>
+    <t>大切</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>だいどころ</t>
+  </si>
+  <si>
+    <t>台所</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>たいへん</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>difficult situation, tough situation</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>tall, high</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>～だけ</t>
+  </si>
+  <si>
+    <t>prt</t>
+  </si>
+  <si>
+    <t>only ～, just ～</t>
+  </si>
+  <si>
+    <t>たくさん</t>
+  </si>
+  <si>
+    <t>many, a lot, much</t>
+  </si>
+  <si>
+    <t>タクシー</t>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>だす</t>
+  </si>
+  <si>
+    <t>出す</t>
+  </si>
+  <si>
+    <t>to put out, to send</t>
+  </si>
+  <si>
+    <t>～たち</t>
+  </si>
+  <si>
+    <t>plural suffix</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>立つ</t>
+  </si>
+  <si>
+    <t>to stand</t>
+  </si>
+  <si>
+    <t>たて</t>
+  </si>
+  <si>
+    <t>length, height</t>
+  </si>
+  <si>
+    <t>たてもの</t>
+  </si>
+  <si>
+    <t>建物</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>楽しい</t>
+  </si>
+  <si>
+    <t>enjoyable, fun</t>
+  </si>
+  <si>
+    <t>たのむ</t>
+  </si>
+  <si>
+    <t>頼む</t>
+  </si>
+  <si>
+    <t>to request, to ask</t>
+  </si>
+  <si>
+    <t>たばこ</t>
+  </si>
+  <si>
+    <t>tobacco, cigarettes</t>
+  </si>
+  <si>
+    <t>たぶん</t>
+  </si>
+  <si>
+    <t>perhaps, probably</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>食べ物</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>たべる</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>たまご</t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>egg(s)</t>
+  </si>
+  <si>
+    <t>だれ</t>
+  </si>
+  <si>
+    <t>誰</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>だれか</t>
+  </si>
+  <si>
+    <t>誰か</t>
+  </si>
+  <si>
+    <t>someone, somebody</t>
+  </si>
+  <si>
+    <t>たんじょうび</t>
+  </si>
+  <si>
+    <t>誕生日</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
 </sst>
 </file>
@@ -2983,10 +3775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A288" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -5187,6 +5979,701 @@
         <v>857</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="5" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5195,10 +6682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="B396" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -5207,7 +6694,8 @@
     <col min="2" max="2" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8619,7 +10107,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9337,7 +10825,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -9767,7 +11255,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -10099,6 +11587,1597 @@
       </c>
       <c r="E301" s="6" t="s">
         <v>858</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D354" s="1"/>
+      <c r="E354" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D360" s="1"/>
+      <c r="E360" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>364</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E379" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
+        <v>386</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
+        <v>388</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <v>392</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
+        <v>394</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
+        <v>396</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
+        <v>398</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Vocabulary.xlsx
+++ b/jlptstudy.net/N5/Vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1383">
   <si>
     <t>ああ</t>
   </si>
@@ -3389,6 +3389,786 @@
   </si>
   <si>
     <t>birthday</t>
+  </si>
+  <si>
+    <t>だんだん</t>
+  </si>
+  <si>
+    <t>gradually, by degrees</t>
+  </si>
+  <si>
+    <t>ちいさい</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>small, little</t>
+  </si>
+  <si>
+    <t>ちいさな</t>
+  </si>
+  <si>
+    <t>小さな</t>
+  </si>
+  <si>
+    <t>ちかい</t>
+  </si>
+  <si>
+    <t>近い</t>
+  </si>
+  <si>
+    <t>adj,suf</t>
+  </si>
+  <si>
+    <t>near, close by, short</t>
+  </si>
+  <si>
+    <t>ちがう</t>
+  </si>
+  <si>
+    <t>違う</t>
+  </si>
+  <si>
+    <t>to differ (from)</t>
+  </si>
+  <si>
+    <t>ちかく</t>
+  </si>
+  <si>
+    <t>近く</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>ちかてつ</t>
+  </si>
+  <si>
+    <t>地下鉄</t>
+  </si>
+  <si>
+    <t>underground train, subway</t>
+  </si>
+  <si>
+    <t>ちず</t>
+  </si>
+  <si>
+    <t>地図</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>(one's own) father</t>
+  </si>
+  <si>
+    <t>ちゃいろ</t>
+  </si>
+  <si>
+    <t>茶色</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>ちゃわん</t>
+  </si>
+  <si>
+    <t>rice bowl</t>
+  </si>
+  <si>
+    <t>～ちゅう</t>
+  </si>
+  <si>
+    <t>during, while ～ing</t>
+  </si>
+  <si>
+    <t>ちょうど</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>just, right, exactly</t>
+  </si>
+  <si>
+    <t>ちょっと</t>
+  </si>
+  <si>
+    <t>adv,int</t>
+  </si>
+  <si>
+    <t>a little, somewhat</t>
+  </si>
+  <si>
+    <t>ついたち</t>
+  </si>
+  <si>
+    <t>for one day, first of month</t>
+  </si>
+  <si>
+    <t>つかう</t>
+  </si>
+  <si>
+    <t>使う</t>
+  </si>
+  <si>
+    <t>to use</t>
+  </si>
+  <si>
+    <t>つかれる</t>
+  </si>
+  <si>
+    <t>疲れる</t>
+  </si>
+  <si>
+    <t>to get tired, to tire</t>
+  </si>
+  <si>
+    <t>つぎ</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>つく</t>
+  </si>
+  <si>
+    <t>着く</t>
+  </si>
+  <si>
+    <t>to arrive at, to reach</t>
+  </si>
+  <si>
+    <t>つくえ</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>つくる</t>
+  </si>
+  <si>
+    <t>作る</t>
+  </si>
+  <si>
+    <t>to make, to create</t>
+  </si>
+  <si>
+    <t>つける</t>
+  </si>
+  <si>
+    <t>to turn on (eg a light)</t>
+  </si>
+  <si>
+    <t>つとめる</t>
+  </si>
+  <si>
+    <t>勤める</t>
+  </si>
+  <si>
+    <t>to serve, to work (for)</t>
+  </si>
+  <si>
+    <t>つまらない</t>
+  </si>
+  <si>
+    <t>insignificant, boring</t>
+  </si>
+  <si>
+    <t>つめたい</t>
+  </si>
+  <si>
+    <t>冷たい</t>
+  </si>
+  <si>
+    <t>cold (to the touch)</t>
+  </si>
+  <si>
+    <t>つよい</t>
+  </si>
+  <si>
+    <t>強い</t>
+  </si>
+  <si>
+    <t>strong, powerful</t>
+  </si>
+  <si>
+    <t>て</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>テープ</t>
+  </si>
+  <si>
+    <t>tape</t>
+  </si>
+  <si>
+    <t>テープレコーダー</t>
+  </si>
+  <si>
+    <t>tape recorder</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>でかける</t>
+  </si>
+  <si>
+    <t>出かける</t>
+  </si>
+  <si>
+    <t>to depart, to go out</t>
+  </si>
+  <si>
+    <t>てがみ</t>
+  </si>
+  <si>
+    <t>手紙</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>できる</t>
+  </si>
+  <si>
+    <t>to be able to</t>
+  </si>
+  <si>
+    <t>でぐち</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>では</t>
+  </si>
+  <si>
+    <t>expr</t>
+  </si>
+  <si>
+    <t>with that...</t>
+  </si>
+  <si>
+    <t>デパート</t>
+  </si>
+  <si>
+    <t>department store</t>
+  </si>
+  <si>
+    <t>でも</t>
+  </si>
+  <si>
+    <t>conj,prt</t>
+  </si>
+  <si>
+    <t>but, however</t>
+  </si>
+  <si>
+    <t>でる</t>
+  </si>
+  <si>
+    <t>出る</t>
+  </si>
+  <si>
+    <t>to appear, to leave</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>television, TV</t>
+  </si>
+  <si>
+    <t>てんき</t>
+  </si>
+  <si>
+    <t>天気</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>でんき</t>
+  </si>
+  <si>
+    <t>電気</t>
+  </si>
+  <si>
+    <t>electricity, (electric) light</t>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>electric train</t>
+  </si>
+  <si>
+    <t>でんわ</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>と</t>
+  </si>
+  <si>
+    <t>戸</t>
+  </si>
+  <si>
+    <t>door (Japanese style)</t>
+  </si>
+  <si>
+    <t>～ど</t>
+  </si>
+  <si>
+    <t>～度</t>
+  </si>
+  <si>
+    <t>ドア</t>
+  </si>
+  <si>
+    <t>door (Western style)</t>
+  </si>
+  <si>
+    <t>トイレ</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>どう</t>
+  </si>
+  <si>
+    <t>どうして</t>
+  </si>
+  <si>
+    <t>why?, for what reason</t>
+  </si>
+  <si>
+    <t>どうぞ</t>
+  </si>
+  <si>
+    <t>please, kindly, by all means</t>
+  </si>
+  <si>
+    <t>どうぶつ</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>どうも</t>
+  </si>
+  <si>
+    <t>thanks, very</t>
+  </si>
+  <si>
+    <t>とお</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>far, distant</t>
+  </si>
+  <si>
+    <t>とおか</t>
+  </si>
+  <si>
+    <t>十日</t>
+  </si>
+  <si>
+    <t>ten days, the tenth (day of the month)</t>
+  </si>
+  <si>
+    <t>～とき</t>
+  </si>
+  <si>
+    <t>at the time of ～</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>とけい</t>
+  </si>
+  <si>
+    <t>時計</t>
+  </si>
+  <si>
+    <t>watch, clock</t>
+  </si>
+  <si>
+    <t>どこ</t>
+  </si>
+  <si>
+    <t>where, what place</t>
+  </si>
+  <si>
+    <t>ところ</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>とし</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>year, age</t>
+  </si>
+  <si>
+    <t>としょかん</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>どちら</t>
+  </si>
+  <si>
+    <t>which, which way</t>
+  </si>
+  <si>
+    <t>どっち</t>
+  </si>
+  <si>
+    <t>which one, which way</t>
+  </si>
+  <si>
+    <t>とても</t>
+  </si>
+  <si>
+    <t>どなた</t>
+  </si>
+  <si>
+    <t>となり</t>
+  </si>
+  <si>
+    <t>隣</t>
+  </si>
+  <si>
+    <t>next to, next door to</t>
+  </si>
+  <si>
+    <t>どの</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>とぶ</t>
+  </si>
+  <si>
+    <t>飛ぶ</t>
+  </si>
+  <si>
+    <t>to fly, to hop</t>
+  </si>
+  <si>
+    <t>とまる</t>
+  </si>
+  <si>
+    <t>止まる</t>
+  </si>
+  <si>
+    <t>to come to a halt</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>友達</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>どようび</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>とり</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>とりにく</t>
+  </si>
+  <si>
+    <t>とり肉</t>
+  </si>
+  <si>
+    <t>chicken meat</t>
+  </si>
+  <si>
+    <t>とる</t>
+  </si>
+  <si>
+    <t>取る</t>
+  </si>
+  <si>
+    <t>to take</t>
+  </si>
+  <si>
+    <t>撮る</t>
+  </si>
+  <si>
+    <t>to take (a photo)</t>
+  </si>
+  <si>
+    <t>どれ</t>
+  </si>
+  <si>
+    <t>which (of three or more)</t>
+  </si>
+  <si>
+    <t>どんな</t>
+  </si>
+  <si>
+    <t>na-adj,adj-pn,n</t>
+  </si>
+  <si>
+    <t>what, what kind of</t>
+  </si>
+  <si>
+    <t>ない</t>
+  </si>
+  <si>
+    <t>there isn't, doesn't have</t>
+  </si>
+  <si>
+    <t>ナイフ</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>なか</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>inside, middle, among</t>
+  </si>
+  <si>
+    <t>ながい</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>～ながら</t>
+  </si>
+  <si>
+    <t>while ~ing, during, although</t>
+  </si>
+  <si>
+    <t>なく</t>
+  </si>
+  <si>
+    <t>鳴く</t>
+  </si>
+  <si>
+    <t>to sing (bird), to make sound (animal)</t>
+  </si>
+  <si>
+    <t>なくす</t>
+  </si>
+  <si>
+    <t>無くす</t>
+  </si>
+  <si>
+    <t>to lose something</t>
+  </si>
+  <si>
+    <t>なぜ</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>なつやすみ</t>
+  </si>
+  <si>
+    <t>夏休み</t>
+  </si>
+  <si>
+    <t>summer vacation, summer holiday</t>
+  </si>
+  <si>
+    <t>～など</t>
+  </si>
+  <si>
+    <t>n,n-suf,prt</t>
+  </si>
+  <si>
+    <t>et cetera</t>
+  </si>
+  <si>
+    <t>ななつ</t>
+  </si>
+  <si>
+    <t>七つ</t>
+  </si>
+  <si>
+    <t>なん/なに</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>なのか</t>
+  </si>
+  <si>
+    <t>七日</t>
+  </si>
+  <si>
+    <t>seven days, the seventh day (of the month)</t>
+  </si>
+  <si>
+    <t>なまえ</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ならう</t>
+  </si>
+  <si>
+    <t>習う</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>ならぶ</t>
+  </si>
+  <si>
+    <t>並ぶ</t>
+  </si>
+  <si>
+    <t>to line up, to stand in a line</t>
+  </si>
+  <si>
+    <t>ならべる</t>
+  </si>
+  <si>
+    <t>並べる</t>
+  </si>
+  <si>
+    <t>to line up, to set up</t>
+  </si>
+  <si>
+    <t>なる</t>
+  </si>
+  <si>
+    <t>to become</t>
+  </si>
+  <si>
+    <t>なん～</t>
+  </si>
+  <si>
+    <t>何～</t>
+  </si>
+  <si>
+    <t>what sort of ～</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
 </sst>
 </file>
@@ -3775,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A288" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -6674,6 +7454,701 @@
         <v>1121</v>
       </c>
     </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="5" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="5" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="5" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="5" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B474" s="7" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B478" s="7" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B498" s="7" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B500" s="7" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>1381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6682,11 +8157,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E401"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="B396" sqref="B1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13180,6 +14653,1597 @@
         <v>1122</v>
       </c>
     </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
+        <v>402</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
+        <v>404</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E405" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
+        <v>406</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
+        <v>408</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
+        <v>410</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
+        <v>412</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E413" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
+        <v>414</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E415" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
+        <v>416</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E417" s="6" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
+        <v>418</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E419" s="6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
+        <v>420</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E421" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="4">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E423" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="4">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E425" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="4">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E427" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="4">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" s="6" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="4">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E431" s="6" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="4">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E433" s="6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="4">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435" s="6" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="4">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E437" s="6" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="4">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E439" s="6" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="4">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E441" s="6" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="4">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E443" s="6" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="4">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E445" s="6" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="4">
+        <v>446</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E447" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="4">
+        <v>448</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E449" s="6" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="4">
+        <v>450</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E451" s="6" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="4">
+        <v>452</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E453" s="6" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="4">
+        <v>454</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E455" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="4">
+        <v>456</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D457" s="4"/>
+      <c r="E457" s="6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="4">
+        <v>458</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E459" s="6" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="4">
+        <v>460</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E461" s="6" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>461</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="4">
+        <v>462</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" s="6" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="4">
+        <v>464</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E465" s="6" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="4">
+        <v>466</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E467" s="6" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="4">
+        <v>468</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E469" s="6" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="4">
+        <v>470</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E471" s="6" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="4">
+        <v>472</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E473" s="6" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="4">
+        <v>474</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="4">
+        <v>476</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E477" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="4">
+        <v>478</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E479" s="6" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="4">
+        <v>480</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E481" s="6" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="4">
+        <v>482</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E483" s="6" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="4">
+        <v>484</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D485" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E485" s="6" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="4">
+        <v>486</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E487" s="6" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="4">
+        <v>488</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D489" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E489" s="6" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="4">
+        <v>490</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E491" s="6" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="4">
+        <v>492</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E493" s="6" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="4">
+        <v>494</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E495" s="6" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="4">
+        <v>496</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E497" s="6" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="4">
+        <v>498</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E499" s="6" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D500" s="1"/>
+      <c r="E500" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="4">
+        <v>500</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E501" s="6" t="s">
+        <v>1382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
